--- a/StructureDefinition-hla-dpa1.xlsx
+++ b/StructureDefinition-hla-dpa1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hla-dpa1.xlsx
+++ b/StructureDefinition-hla-dpa1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:37:26-06:00</t>
+    <t>2024-03-18T10:20:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hla-dpa1.xlsx
+++ b/StructureDefinition-hla-dpa1.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$125</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4879" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4840" uniqueCount="682">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T10:20:43-05:00</t>
+    <t>2024-05-01T13:56:53-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>NMDP (http://bethematch.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -1343,25 +1343,10 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.id</t>
-  </si>
-  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.extension</t>
-  </si>
-  <si>
     <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding</t>
   </si>
   <si>
     <t>Observation.value[x].coding</t>
@@ -1374,25 +1359,25 @@
     <t>slicing on valueCodeableConcept</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding:GL</t>
+    <t>Observation.value[x].coding:GL</t>
   </si>
   <si>
     <t>GL</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding:GL.id</t>
+    <t>Observation.value[x].coding:GL.id</t>
   </si>
   <si>
     <t>Observation.value[x].coding.id</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding:GL.extension</t>
+    <t>Observation.value[x].coding:GL.extension</t>
   </si>
   <si>
     <t>Observation.value[x].coding.extension</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding:GL.system</t>
+    <t>Observation.value[x].coding:GL.system</t>
   </si>
   <si>
     <t>Observation.value[x].coding.system</t>
@@ -1401,13 +1386,13 @@
     <t>http://glstring.org</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding:GL.version</t>
+    <t>Observation.value[x].coding:GL.version</t>
   </si>
   <si>
     <t>Observation.value[x].coding.version</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding:GL.code</t>
+    <t>Observation.value[x].coding:GL.code</t>
   </si>
   <si>
     <t>Observation.value[x].coding.code</t>
@@ -1417,19 +1402,16 @@
 GLSC:Use GL String Code to report HLA genotype {matches('^hla#.+')}</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding:GL.display</t>
+    <t>Observation.value[x].coding:GL.display</t>
   </si>
   <si>
     <t>Observation.value[x].coding.display</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding:GL.userSelected</t>
+    <t>Observation.value[x].coding:GL.userSelected</t>
   </si>
   <si>
     <t>Observation.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.text</t>
   </si>
   <si>
     <t>Observation.value[x].text</t>
@@ -2504,7 +2486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP126"/>
+  <dimension ref="A1:AP125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8179,14 +8161,16 @@
         <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>412</v>
@@ -8227,17 +8211,15 @@
         <v>423</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -8249,23 +8231,19 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>303</v>
+        <v>104</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>413</v>
+        <v>105</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -8289,10 +8267,10 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -8313,7 +8291,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8322,47 +8300,47 @@
         <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>421</v>
+        <v>108</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -8374,15 +8352,17 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8419,31 +8399,31 @@
         <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -8466,18 +8446,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -8489,21 +8469,23 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8539,10 +8521,10 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>115</v>
+        <v>426</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>116</v>
+        <v>427</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>79</v>
@@ -8551,7 +8533,7 @@
         <v>117</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>118</v>
+        <v>327</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8563,7 +8545,7 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -8572,10 +8554,10 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8586,12 +8568,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8600,10 +8584,10 @@
         <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>79</v>
@@ -8661,16 +8645,16 @@
         <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>327</v>
@@ -8708,48 +8692,42 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8797,19 +8775,19 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8818,10 +8796,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8832,21 +8810,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8858,15 +8836,17 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8903,31 +8883,31 @@
         <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8950,21 +8930,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8973,27 +8953,29 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>79</v>
@@ -9023,31 +9005,31 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -9056,10 +9038,10 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -9070,10 +9052,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9081,7 +9063,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>90</v>
@@ -9096,26 +9078,24 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>79</v>
@@ -9157,7 +9137,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -9178,10 +9158,10 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -9192,10 +9172,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9203,7 +9183,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>90</v>
@@ -9218,18 +9198,18 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -9277,7 +9257,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -9289,7 +9269,7 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>441</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -9298,10 +9278,10 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -9312,10 +9292,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9323,7 +9303,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>90</v>
@@ -9338,17 +9318,17 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9397,7 +9377,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9409,7 +9389,7 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>446</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9418,10 +9398,10 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -9432,10 +9412,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9458,17 +9438,19 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9517,7 +9499,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9538,10 +9520,10 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9552,10 +9534,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9578,19 +9560,19 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>198</v>
+        <v>332</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9639,7 +9621,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9660,10 +9642,10 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>204</v>
+        <v>338</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9674,10 +9656,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9697,22 +9679,22 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>332</v>
+        <v>448</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>333</v>
+        <v>449</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>334</v>
+        <v>450</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>335</v>
+        <v>451</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9737,13 +9719,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9761,7 +9743,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>336</v>
+        <v>447</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9770,7 +9752,7 @@
         <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>102</v>
@@ -9782,10 +9764,10 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9796,21 +9778,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9825,16 +9807,16 @@
         <v>303</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9862,10 +9844,10 @@
         <v>148</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9883,16 +9865,16 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>102</v>
@@ -9901,31 +9883,31 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9944,19 +9926,19 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>303</v>
+        <v>469</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9981,31 +9963,31 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -10014,7 +9996,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>102</v>
@@ -10023,27 +10005,27 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>471</v>
+        <v>241</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10054,7 +10036,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -10066,7 +10048,7 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>475</v>
+        <v>303</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>476</v>
@@ -10077,9 +10059,7 @@
       <c r="N63" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="O63" t="s" s="2">
-        <v>479</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
@@ -10103,13 +10083,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -10127,16 +10107,16 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>102</v>
@@ -10145,27 +10125,27 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>241</v>
+        <v>482</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10191,15 +10171,17 @@
         <v>303</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -10226,28 +10208,28 @@
         <v>209</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -10265,27 +10247,27 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10293,13 +10275,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>79</v>
@@ -10308,20 +10290,18 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>303</v>
+        <v>495</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -10345,13 +10325,13 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -10369,7 +10349,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10387,27 +10367,27 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10415,13 +10395,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>79</v>
@@ -10430,16 +10410,16 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10489,7 +10469,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10507,27 +10487,27 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10538,7 +10518,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -10550,18 +10530,20 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10609,45 +10591,45 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>518</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10658,7 +10640,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10670,20 +10652,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>519</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>520</v>
+        <v>105</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10731,19 +10709,19 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10752,10 +10730,10 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>526</v>
+        <v>108</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -10766,21 +10744,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10792,15 +10770,17 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10849,19 +10829,19 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10884,14 +10864,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>110</v>
+        <v>524</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10904,24 +10884,26 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>112</v>
+        <v>525</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>113</v>
+        <v>526</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10969,7 +10951,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>118</v>
+        <v>527</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10993,7 +10975,7 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -11004,46 +10986,42 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>111</v>
+        <v>529</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -11091,31 +11069,31 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN71" t="s" s="2">
-        <v>241</v>
+        <v>534</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -11126,10 +11104,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11152,7 +11130,7 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>536</v>
@@ -11209,7 +11187,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -11218,7 +11196,7 @@
         <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>102</v>
@@ -11230,10 +11208,10 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -11244,10 +11222,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11270,16 +11248,20 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>535</v>
+        <v>303</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
       </c>
@@ -11303,13 +11285,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -11327,7 +11309,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -11336,7 +11318,7 @@
         <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>102</v>
@@ -11345,13 +11327,13 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>544</v>
+        <v>466</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11362,10 +11344,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11376,7 +11358,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -11391,16 +11373,16 @@
         <v>303</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11425,13 +11407,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -11449,13 +11431,13 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -11467,13 +11449,13 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11484,10 +11466,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11498,7 +11480,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -11510,19 +11492,17 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>303</v>
+        <v>556</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11547,13 +11527,13 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
@@ -11571,13 +11551,13 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -11589,13 +11569,13 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>472</v>
+        <v>560</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11632,18 +11612,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>565</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11712,10 +11690,10 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11726,10 +11704,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11740,7 +11718,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11749,18 +11727,20 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>104</v>
+        <v>566</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11809,13 +11789,13 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
@@ -11830,10 +11810,10 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11844,10 +11824,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11870,16 +11850,16 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11917,19 +11897,19 @@
         <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11950,10 +11930,10 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11964,12 +11944,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11990,16 +11972,16 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -12037,19 +12019,19 @@
         <v>79</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>584</v>
+        <v>79</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -12070,10 +12052,10 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -12084,13 +12066,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>79</v>
@@ -12112,16 +12094,16 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12171,7 +12153,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -12192,10 +12174,10 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -12206,20 +12188,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -12234,18 +12214,20 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
       </c>
@@ -12281,19 +12263,19 @@
         <v>79</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -12314,10 +12296,10 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -12328,10 +12310,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12339,11 +12321,11 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12351,23 +12333,19 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>519</v>
+        <v>104</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>595</v>
+        <v>105</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12403,31 +12381,31 @@
         <v>79</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>594</v>
+        <v>107</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -12436,10 +12414,10 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>602</v>
+        <v>108</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -12450,21 +12428,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -12476,15 +12454,17 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12533,19 +12513,19 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -12568,14 +12548,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>110</v>
+        <v>524</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12588,24 +12568,26 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>112</v>
+        <v>525</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>113</v>
+        <v>526</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12653,7 +12635,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>118</v>
+        <v>527</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12677,7 +12659,7 @@
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12688,45 +12670,45 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>114</v>
+        <v>603</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12751,13 +12733,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12775,34 +12757,34 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>79</v>
@@ -12810,10 +12792,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12821,7 +12803,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>90</v>
@@ -12836,19 +12818,19 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>303</v>
+        <v>606</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>607</v>
       </c>
       <c r="M86" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="N86" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="O86" t="s" s="2">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12873,13 +12855,13 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
@@ -12897,10 +12879,10 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>90</v>
@@ -12915,27 +12897,27 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12955,22 +12937,22 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>614</v>
-      </c>
       <c r="O87" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -12995,13 +12977,13 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -13019,7 +13001,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -13028,7 +13010,7 @@
         <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>102</v>
@@ -13037,38 +13019,38 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>420</v>
+        <v>241</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -13083,16 +13065,16 @@
         <v>303</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>617</v>
+        <v>458</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>618</v>
+        <v>459</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>619</v>
+        <v>460</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -13120,10 +13102,10 @@
         <v>148</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>79</v>
@@ -13141,16 +13123,16 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>102</v>
@@ -13159,31 +13141,31 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13202,19 +13184,19 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>464</v>
+        <v>616</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>465</v>
+        <v>617</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -13239,13 +13221,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -13263,7 +13245,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -13281,29 +13263,31 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>79</v>
       </c>
@@ -13312,7 +13296,7 @@
         <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -13321,22 +13305,22 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -13385,7 +13369,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13406,10 +13390,10 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13423,11 +13407,9 @@
         <v>624</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>79</v>
       </c>
@@ -13445,23 +13427,19 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>519</v>
+        <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>626</v>
+        <v>105</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>79</v>
       </c>
@@ -13509,19 +13487,19 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>594</v>
+        <v>107</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -13530,10 +13508,10 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>602</v>
+        <v>108</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13544,21 +13522,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -13570,15 +13548,17 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13627,19 +13607,19 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
@@ -13662,14 +13642,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>110</v>
+        <v>524</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13682,24 +13662,26 @@
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>112</v>
+        <v>525</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>113</v>
+        <v>526</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13747,7 +13729,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>118</v>
+        <v>527</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13771,7 +13753,7 @@
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13782,45 +13764,45 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>531</v>
+        <v>619</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>114</v>
+        <v>603</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>79</v>
@@ -13830,7 +13812,7 @@
         <v>79</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>79</v>
+        <v>628</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>79</v>
@@ -13845,13 +13827,13 @@
         <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>79</v>
@@ -13869,34 +13851,34 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>79</v>
@@ -13904,10 +13886,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13915,7 +13897,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>90</v>
@@ -13930,19 +13912,19 @@
         <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>303</v>
+        <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="M95" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="N95" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="O95" t="s" s="2">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -13952,7 +13934,7 @@
         <v>79</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>634</v>
+        <v>79</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>79</v>
@@ -13967,13 +13949,13 @@
         <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>79</v>
@@ -13991,10 +13973,10 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>90</v>
@@ -14009,27 +13991,27 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14049,22 +14031,22 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>414</v>
+        <v>612</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -14089,13 +14071,13 @@
         <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>79</v>
@@ -14113,7 +14095,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -14122,7 +14104,7 @@
         <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>102</v>
@@ -14131,38 +14113,38 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>420</v>
+        <v>241</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -14177,16 +14159,16 @@
         <v>303</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>617</v>
+        <v>458</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>618</v>
+        <v>459</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>619</v>
+        <v>460</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
@@ -14214,10 +14196,10 @@
         <v>148</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>79</v>
@@ -14235,16 +14217,16 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>102</v>
@@ -14253,31 +14235,31 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14296,19 +14278,19 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>464</v>
+        <v>616</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>465</v>
+        <v>617</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -14333,13 +14315,13 @@
         <v>79</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>79</v>
@@ -14357,7 +14339,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -14375,62 +14357,64 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="D99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -14479,7 +14463,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14500,10 +14484,10 @@
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14514,48 +14498,42 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>641</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G100" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>519</v>
+        <v>104</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>642</v>
+        <v>105</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>79</v>
       </c>
@@ -14603,19 +14581,19 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>594</v>
+        <v>107</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
@@ -14624,10 +14602,10 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>602</v>
+        <v>108</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14638,21 +14616,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>79</v>
@@ -14664,15 +14642,17 @@
         <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -14721,19 +14701,19 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
@@ -14756,14 +14736,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>110</v>
+        <v>524</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14776,24 +14756,26 @@
         <v>79</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>112</v>
+        <v>525</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>113</v>
+        <v>526</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>79</v>
       </c>
@@ -14841,7 +14823,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>118</v>
+        <v>527</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14865,7 +14847,7 @@
         <v>79</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>79</v>
@@ -14876,45 +14858,45 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>531</v>
+        <v>642</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>114</v>
+        <v>603</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14924,7 +14906,7 @@
         <v>79</v>
       </c>
       <c r="S103" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="T103" t="s" s="2">
         <v>79</v>
@@ -14939,13 +14921,13 @@
         <v>79</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
@@ -14963,34 +14945,34 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>79</v>
@@ -14998,10 +14980,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15027,16 +15009,16 @@
         <v>303</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M104" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="N104" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="O104" t="s" s="2">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>79</v>
@@ -15046,7 +15028,7 @@
         <v>79</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>79</v>
@@ -15061,13 +15043,11 @@
         <v>79</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>347</v>
+        <v>647</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>79</v>
@@ -15085,10 +15065,10 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>90</v>
@@ -15103,27 +15083,27 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15131,7 +15111,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>90</v>
@@ -15143,22 +15123,22 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>303</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>414</v>
+        <v>612</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>79</v>
@@ -15168,7 +15148,7 @@
         <v>79</v>
       </c>
       <c r="S105" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="T105" t="s" s="2">
         <v>79</v>
@@ -15183,11 +15163,13 @@
         <v>79</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Y105" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="Z105" t="s" s="2">
-        <v>653</v>
+        <v>453</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>79</v>
@@ -15205,7 +15187,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -15214,7 +15196,7 @@
         <v>90</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>102</v>
@@ -15223,38 +15205,38 @@
         <v>79</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>420</v>
+        <v>241</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>79</v>
@@ -15269,16 +15251,16 @@
         <v>303</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>617</v>
+        <v>458</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>618</v>
+        <v>459</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>619</v>
+        <v>460</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>79</v>
@@ -15306,10 +15288,10 @@
         <v>148</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>79</v>
@@ -15327,16 +15309,16 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>102</v>
@@ -15345,31 +15327,31 @@
         <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15388,19 +15370,19 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>464</v>
+        <v>616</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>465</v>
+        <v>617</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>79</v>
@@ -15425,13 +15407,13 @@
         <v>79</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>79</v>
@@ -15449,7 +15431,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -15467,29 +15449,31 @@
         <v>79</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="D108" t="s" s="2">
         <v>79</v>
       </c>
@@ -15507,22 +15491,22 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>79</v>
@@ -15571,7 +15555,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -15592,10 +15576,10 @@
         <v>79</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>79</v>
@@ -15606,14 +15590,12 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>658</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
         <v>79</v>
       </c>
@@ -15622,7 +15604,7 @@
         <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>79</v>
@@ -15631,23 +15613,19 @@
         <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>519</v>
+        <v>104</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>659</v>
+        <v>105</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>79</v>
       </c>
@@ -15695,19 +15673,19 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>594</v>
+        <v>107</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>79</v>
@@ -15716,10 +15694,10 @@
         <v>79</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>602</v>
+        <v>108</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>79</v>
@@ -15730,21 +15708,21 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>79</v>
@@ -15756,15 +15734,17 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>79</v>
@@ -15813,19 +15793,19 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>79</v>
@@ -15848,14 +15828,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>110</v>
+        <v>524</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15868,24 +15848,26 @@
         <v>79</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>112</v>
+        <v>525</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>113</v>
+        <v>526</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>79</v>
       </c>
@@ -15933,7 +15915,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>118</v>
+        <v>527</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15957,7 +15939,7 @@
         <v>79</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>79</v>
@@ -15968,45 +15950,45 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>531</v>
+        <v>659</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>114</v>
+        <v>603</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>79</v>
@@ -16016,7 +15998,7 @@
         <v>79</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>79</v>
@@ -16031,13 +16013,13 @@
         <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>79</v>
@@ -16055,34 +16037,34 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>79</v>
@@ -16090,10 +16072,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16119,16 +16101,16 @@
         <v>303</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M113" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="N113" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="O113" t="s" s="2">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>79</v>
@@ -16138,7 +16120,7 @@
         <v>79</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>666</v>
+        <v>79</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>79</v>
@@ -16153,13 +16135,13 @@
         <v>79</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>79</v>
@@ -16177,10 +16159,10 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>90</v>
@@ -16195,27 +16177,27 @@
         <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16223,7 +16205,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>90</v>
@@ -16235,22 +16217,22 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>303</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>668</v>
+        <v>611</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>414</v>
+        <v>612</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>79</v>
@@ -16275,13 +16257,13 @@
         <v>79</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>79</v>
@@ -16299,7 +16281,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -16308,7 +16290,7 @@
         <v>90</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>102</v>
@@ -16317,38 +16299,38 @@
         <v>79</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>420</v>
+        <v>241</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>79</v>
@@ -16363,16 +16345,16 @@
         <v>303</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>617</v>
+        <v>458</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>618</v>
+        <v>459</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>619</v>
+        <v>460</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>79</v>
@@ -16400,10 +16382,10 @@
         <v>148</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>79</v>
@@ -16421,16 +16403,16 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>102</v>
@@ -16439,31 +16421,31 @@
         <v>79</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16482,19 +16464,19 @@
         <v>79</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>464</v>
+        <v>616</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>465</v>
+        <v>617</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>79</v>
@@ -16519,13 +16501,13 @@
         <v>79</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>79</v>
@@ -16543,7 +16525,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -16561,29 +16543,31 @@
         <v>79</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="D117" t="s" s="2">
         <v>79</v>
       </c>
@@ -16601,22 +16585,22 @@
         <v>79</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>79</v>
@@ -16665,7 +16649,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -16686,10 +16670,10 @@
         <v>79</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>79</v>
@@ -16700,14 +16684,12 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
         <v>79</v>
       </c>
@@ -16716,7 +16698,7 @@
         <v>77</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>79</v>
@@ -16725,23 +16707,19 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>519</v>
+        <v>104</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>674</v>
+        <v>105</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>79</v>
       </c>
@@ -16789,19 +16767,19 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>594</v>
+        <v>107</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>79</v>
@@ -16810,10 +16788,10 @@
         <v>79</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>602</v>
+        <v>108</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>79</v>
@@ -16824,21 +16802,21 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>79</v>
@@ -16850,15 +16828,17 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>79</v>
@@ -16907,19 +16887,19 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>79</v>
@@ -16942,14 +16922,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>110</v>
+        <v>524</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16962,24 +16942,26 @@
         <v>79</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>112</v>
+        <v>525</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>113</v>
+        <v>526</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>79</v>
       </c>
@@ -17027,7 +17009,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>118</v>
+        <v>527</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -17051,7 +17033,7 @@
         <v>79</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>79</v>
@@ -17062,45 +17044,45 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>531</v>
+        <v>674</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>114</v>
+        <v>603</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -17110,7 +17092,7 @@
         <v>79</v>
       </c>
       <c r="S121" t="s" s="2">
-        <v>79</v>
+        <v>675</v>
       </c>
       <c r="T121" t="s" s="2">
         <v>79</v>
@@ -17125,13 +17107,13 @@
         <v>79</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>79</v>
@@ -17149,34 +17131,34 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>79</v>
@@ -17184,10 +17166,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17213,16 +17195,16 @@
         <v>303</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="M122" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="N122" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="O122" t="s" s="2">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -17232,7 +17214,7 @@
         <v>79</v>
       </c>
       <c r="S122" t="s" s="2">
-        <v>681</v>
+        <v>79</v>
       </c>
       <c r="T122" t="s" s="2">
         <v>79</v>
@@ -17247,13 +17229,11 @@
         <v>79</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>347</v>
+        <v>678</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>79</v>
@@ -17271,10 +17251,10 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>90</v>
@@ -17289,27 +17269,27 @@
         <v>79</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17317,7 +17297,7 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>90</v>
@@ -17329,22 +17309,22 @@
         <v>79</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>303</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>683</v>
+        <v>611</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>414</v>
+        <v>612</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -17371,9 +17351,11 @@
       <c r="X123" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y123" s="2"/>
+      <c r="Y123" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="Z123" t="s" s="2">
-        <v>684</v>
+        <v>453</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>79</v>
@@ -17391,7 +17373,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -17400,7 +17382,7 @@
         <v>90</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>102</v>
@@ -17409,38 +17391,38 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>420</v>
+        <v>241</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>79</v>
@@ -17455,16 +17437,16 @@
         <v>303</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>617</v>
+        <v>458</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>618</v>
+        <v>459</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>619</v>
+        <v>460</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -17492,10 +17474,10 @@
         <v>148</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>79</v>
@@ -17513,16 +17495,16 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>102</v>
@@ -17531,31 +17513,31 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17574,19 +17556,19 @@
         <v>79</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>464</v>
+        <v>616</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>465</v>
+        <v>617</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>79</v>
@@ -17611,13 +17593,13 @@
         <v>79</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>79</v>
@@ -17635,7 +17617,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -17653,145 +17635,23 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="P126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP126" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP126">
+  <autoFilter ref="A1:AP125">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17801,7 +17661,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI125">
+  <conditionalFormatting sqref="A2:AI124">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hla-dpa1.xlsx
+++ b/StructureDefinition-hla-dpa1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T13:56:53-05:00</t>
+    <t>2024-05-20T10:22:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hla-dpa1.xlsx
+++ b/StructureDefinition-hla-dpa1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:53:38-06:00</t>
+    <t>2024-12-02T18:31:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
